--- a/samples/configs/test.xlsx
+++ b/samples/configs/test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\go_projects\cfg_exporter_go\samples\configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="573"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="573"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="test" localSheetId="0">Sheet1!$A$1:$N$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +36,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="test" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="1" name="test" type="6" refreshedVersion="2" background="1" saveData="1">
     <textPr sourceFile="J:\projects\cfg_exporter\samples\test.csv" tab="0" comma="1">
       <textFields>
         <textField/>
@@ -116,11 +121,8 @@
     <t>p_key</t>
   </si>
   <si>
-    <t>default("无文字")</t>
-  </si>
-  <si>
     <t>range(1,100)
-not_null
+not_null_x000D_
 u_key</t>
   </si>
   <si>
@@ -187,9 +189,6 @@
     <t>(1,2,3)</t>
   </si>
   <si>
-    <t>{1=10,2=20}</t>
-  </si>
-  <si>
     <t>1.icon</t>
   </si>
   <si>
@@ -211,9 +210,6 @@
     <t>(2,3,4,5)</t>
   </si>
   <si>
-    <t>{"a"="b","c"="d"}</t>
-  </si>
-  <si>
     <t>2.icon</t>
   </si>
   <si>
@@ -224,19 +220,65 @@
   </si>
   <si>
     <t>macro2_vlaue</t>
+  </si>
+  <si>
+    <t>default(无文字)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:10,2:20}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b,c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,151 +299,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,198 +321,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.0499893185216834"/>
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -624,253 +361,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -887,62 +382,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -995,7 +449,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1030,7 +484,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1233,32 +687,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9.50833333333333" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5083333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="1" customWidth="1"/>
     <col min="15" max="16" width="21.625" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.75" style="1" customWidth="1"/>
@@ -1268,12 +722,12 @@
     <col min="21" max="21" width="9" style="1"/>
     <col min="22" max="22" width="21.625" style="1" customWidth="1"/>
     <col min="23" max="23" width="11.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5083333333333" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1361,7 +815,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:16">
+    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1369,123 +823,119 @@
         <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1493,25 +943,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L6" s="1">
         <v>1.02</v>
@@ -1520,16 +970,16 @@
         <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1537,43 +987,43 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="H7" s="1">
         <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L7" s="1">
-        <v>3.99999</v>
+        <v>3.9999899999999999</v>
       </c>
       <c r="M7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1583,10 +1033,16 @@
       <c r="D8" s="1">
         <v>3</v>
       </c>
+      <c r="O8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/samples/configs/test.xlsx
+++ b/samples/configs/test.xlsx
@@ -848,8 +848,12 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
@@ -1032,12 +1036,6 @@
       </c>
       <c r="D8" s="1">
         <v>3</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/samples/configs/test.xlsx
+++ b/samples/configs/test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\go_projects\cfg_exporter_go\samples\configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="573"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="573"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="test" localSheetId="0">Sheet1!$A$1:$N$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +31,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="test" type="6" refreshedVersion="2" background="1" saveData="1">
+  <connection id="1" name="test" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="J:\projects\cfg_exporter\samples\test.csv" tab="0" comma="1">
       <textFields>
         <textField/>
@@ -121,8 +116,11 @@
     <t>p_key</t>
   </si>
   <si>
+    <t>default(无文字)</t>
+  </si>
+  <si>
     <t>range(1,100)
-not_null_x000D_
+not_null
 u_key</t>
   </si>
   <si>
@@ -141,10 +139,10 @@
     <t>resource(samples/icon)</t>
   </si>
   <si>
-    <t>macro(id,test_lang)</t>
-  </si>
-  <si>
-    <t>macro(test_id,test_str)</t>
+    <t>macro(m1,id,test_lang)</t>
+  </si>
+  <si>
+    <t>macro(m2,test_id,test_str)</t>
   </si>
   <si>
     <t>id</t>
@@ -189,6 +187,9 @@
     <t>(1,2,3)</t>
   </si>
   <si>
+    <t>{1:10,2:20}</t>
+  </si>
+  <si>
     <t>1.icon</t>
   </si>
   <si>
@@ -210,27 +211,13 @@
     <t>(2,3,4,5)</t>
   </si>
   <si>
-    <t>2.icon</t>
-  </si>
-  <si>
-    <t>英文转中文</t>
-  </si>
-  <si>
-    <t>macro1_vlaue</t>
-  </si>
-  <si>
-    <t>macro2_vlaue</t>
-  </si>
-  <si>
-    <t>default(无文字)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1:10,2:20}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>{a</t>
     </r>
     <r>
@@ -238,7 +225,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -257,7 +243,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -271,14 +256,31 @@
       </rPr>
       <t>d}</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.icon</t>
+  </si>
+  <si>
+    <t>英文转中文</t>
+  </si>
+  <si>
+    <t>macro1_value</t>
+  </si>
+  <si>
+    <t>macro2_value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,20 +301,157 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,24 +460,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39994506668294322"/>
+        <fgColor theme="1" tint="0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -361,9 +686,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -382,21 +949,65 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -449,7 +1060,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,7 +1095,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -687,26 +1298,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:P3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="9.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
@@ -727,7 +1338,7 @@
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +1384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -815,7 +1426,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="60" customHeight="1" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -823,123 +1434,123 @@
         <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -947,25 +1558,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L6" s="1">
         <v>1.02</v>
@@ -974,16 +1585,16 @@
         <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -991,43 +1602,43 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H7" s="1">
         <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L7" s="1">
-        <v>3.9999899999999999</v>
+        <v>3.99999</v>
       </c>
       <c r="M7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1039,8 +1650,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>